--- a/variables.xlsx
+++ b/variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Non-Hermitian Gauge Field\non-hermitian-gauge-field\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0000F94B-AA1A-4B70-BEC6-A80A3F49B3FA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97E6DBB-72E1-4F5F-BC0A-9FCFF6E077E5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="852" yWindow="-108" windowWidth="22296" windowHeight="13176" tabRatio="1000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="852" yWindow="-108" windowWidth="22296" windowHeight="13176" tabRatio="1000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hex_array" sheetId="30" r:id="rId1"/>
@@ -1000,7 +1000,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E13" sqref="B10:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1039,16 +1039,16 @@
         <v>25</v>
       </c>
       <c r="B2" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="6">
         <v>0</v>
@@ -1068,16 +1068,16 @@
         <v>26</v>
       </c>
       <c r="B3" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="6">
         <v>0</v>
@@ -1094,16 +1094,16 @@
         <v>27</v>
       </c>
       <c r="B4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="6">
         <v>0</v>
@@ -1120,10 +1120,10 @@
         <v>28</v>
       </c>
       <c r="B5" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="6">
         <v>1</v>
@@ -1251,16 +1251,20 @@
         <v>25</v>
       </c>
       <c r="B10" s="6">
-        <v>0</v>
+        <f>PI()/4</f>
+        <v>0.78539816339744828</v>
       </c>
       <c r="C10" s="6">
-        <v>0</v>
+        <f>PI()/4</f>
+        <v>0.78539816339744828</v>
       </c>
       <c r="D10" s="6">
-        <v>0</v>
+        <f>-PI()/4</f>
+        <v>-0.78539816339744828</v>
       </c>
       <c r="E10" s="6">
-        <v>0</v>
+        <f>PI()/4</f>
+        <v>0.78539816339744828</v>
       </c>
       <c r="F10" s="6">
         <v>0</v>
@@ -1280,16 +1284,20 @@
         <v>26</v>
       </c>
       <c r="B11" s="6">
-        <v>0</v>
+        <f>PI()/4</f>
+        <v>0.78539816339744828</v>
       </c>
       <c r="C11" s="6">
-        <v>0</v>
+        <f>PI()/2</f>
+        <v>1.5707963267948966</v>
       </c>
       <c r="D11" s="6">
-        <v>0</v>
+        <f>PI()/4</f>
+        <v>0.78539816339744828</v>
       </c>
       <c r="E11" s="6">
-        <v>0</v>
+        <f>PI()/4</f>
+        <v>0.78539816339744828</v>
       </c>
       <c r="F11" s="6">
         <v>0</v>
@@ -1306,16 +1314,20 @@
         <v>27</v>
       </c>
       <c r="B12" s="6">
-        <v>0</v>
+        <f>PI()/4</f>
+        <v>0.78539816339744828</v>
       </c>
       <c r="C12" s="6">
-        <v>0</v>
+        <f>PI()/4</f>
+        <v>0.78539816339744828</v>
       </c>
       <c r="D12" s="6">
-        <v>0</v>
+        <f>PI()/4</f>
+        <v>0.78539816339744828</v>
       </c>
       <c r="E12" s="6">
-        <v>0</v>
+        <f>PI()/4</f>
+        <v>0.78539816339744828</v>
       </c>
       <c r="F12" s="6">
         <v>0</v>
@@ -1332,13 +1344,16 @@
         <v>28</v>
       </c>
       <c r="B13" s="6">
-        <v>0</v>
+        <f>PI()/4</f>
+        <v>0.78539816339744828</v>
       </c>
       <c r="C13" s="6">
-        <v>0</v>
+        <f>PI()/4</f>
+        <v>0.78539816339744828</v>
       </c>
       <c r="D13" s="6">
-        <v>0</v>
+        <f>PI()/4</f>
+        <v>0.78539816339744828</v>
       </c>
       <c r="E13" s="6">
         <f>PI()/2</f>
@@ -1552,7 +1567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1864,8 +1879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="B10:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1904,16 +1919,16 @@
         <v>25</v>
       </c>
       <c r="B2" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="6">
         <v>0</v>
@@ -1933,16 +1948,16 @@
         <v>26</v>
       </c>
       <c r="B3" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="6">
         <v>0</v>
@@ -1959,16 +1974,16 @@
         <v>27</v>
       </c>
       <c r="B4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="6">
         <v>0</v>
@@ -1985,10 +2000,10 @@
         <v>28</v>
       </c>
       <c r="B5" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="6">
         <v>1</v>
@@ -2116,16 +2131,20 @@
         <v>25</v>
       </c>
       <c r="B10" s="6">
-        <v>0</v>
+        <f>PI()/4</f>
+        <v>0.78539816339744828</v>
       </c>
       <c r="C10" s="6">
-        <v>0</v>
+        <f>PI()/4</f>
+        <v>0.78539816339744828</v>
       </c>
       <c r="D10" s="6">
-        <v>0</v>
+        <f>-PI()/4</f>
+        <v>-0.78539816339744828</v>
       </c>
       <c r="E10" s="6">
-        <v>0</v>
+        <f>PI()/4</f>
+        <v>0.78539816339744828</v>
       </c>
       <c r="F10" s="6">
         <v>0</v>
@@ -2145,16 +2164,20 @@
         <v>26</v>
       </c>
       <c r="B11" s="6">
-        <v>0</v>
+        <f>PI()/4</f>
+        <v>0.78539816339744828</v>
       </c>
       <c r="C11" s="6">
-        <v>0</v>
+        <f>PI()/2</f>
+        <v>1.5707963267948966</v>
       </c>
       <c r="D11" s="6">
-        <v>0</v>
+        <f>PI()/4</f>
+        <v>0.78539816339744828</v>
       </c>
       <c r="E11" s="6">
-        <v>0</v>
+        <f>PI()/4</f>
+        <v>0.78539816339744828</v>
       </c>
       <c r="F11" s="6">
         <v>0</v>
@@ -2171,16 +2194,20 @@
         <v>27</v>
       </c>
       <c r="B12" s="6">
-        <v>0</v>
+        <f>PI()/4</f>
+        <v>0.78539816339744828</v>
       </c>
       <c r="C12" s="6">
-        <v>0</v>
+        <f>PI()/4</f>
+        <v>0.78539816339744828</v>
       </c>
       <c r="D12" s="6">
-        <v>0</v>
+        <f>PI()/4</f>
+        <v>0.78539816339744828</v>
       </c>
       <c r="E12" s="6">
-        <v>0</v>
+        <f>PI()/4</f>
+        <v>0.78539816339744828</v>
       </c>
       <c r="F12" s="6">
         <v>0</v>
@@ -2197,16 +2224,20 @@
         <v>28</v>
       </c>
       <c r="B13" s="6">
-        <v>0</v>
+        <f>PI()/4</f>
+        <v>0.78539816339744828</v>
       </c>
       <c r="C13" s="6">
-        <v>0</v>
+        <f>PI()/4</f>
+        <v>0.78539816339744828</v>
       </c>
       <c r="D13" s="6">
-        <v>0</v>
+        <f>PI()/4</f>
+        <v>0.78539816339744828</v>
       </c>
       <c r="E13" s="6">
-        <v>0</v>
+        <f>PI()/2</f>
+        <v>1.5707963267948966</v>
       </c>
       <c r="F13" s="6">
         <v>0</v>

--- a/variables.xlsx
+++ b/variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Non-Hermitian Gauge Field\non-hermitian-gauge-field\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97E6DBB-72E1-4F5F-BC0A-9FCFF6E077E5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF94ECB3-438A-413E-8F7D-048A4CB9CC38}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="852" yWindow="-108" windowWidth="22296" windowHeight="13176" tabRatio="1000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -331,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -346,6 +346,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1880,7 +1881,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="B10:E13"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2131,20 +2132,16 @@
         <v>25</v>
       </c>
       <c r="B10" s="6">
-        <f>PI()/4</f>
-        <v>0.78539816339744828</v>
+        <v>-3.14159265358979</v>
       </c>
       <c r="C10" s="6">
-        <f>PI()/4</f>
-        <v>0.78539816339744828</v>
-      </c>
-      <c r="D10" s="6">
-        <f>-PI()/4</f>
-        <v>-0.78539816339744828</v>
+        <v>-1.5707963267948899</v>
+      </c>
+      <c r="D10" s="14">
+        <v>-7.7402390925738896E-17</v>
       </c>
       <c r="E10" s="6">
-        <f>PI()/4</f>
-        <v>0.78539816339744828</v>
+        <v>1.5707963267949001</v>
       </c>
       <c r="F10" s="6">
         <v>0</v>
@@ -2164,20 +2161,16 @@
         <v>26</v>
       </c>
       <c r="B11" s="6">
-        <f>PI()/4</f>
-        <v>0.78539816339744828</v>
-      </c>
-      <c r="C11" s="6">
-        <f>PI()/2</f>
-        <v>1.5707963267948966</v>
+        <v>1.5707963267949001</v>
+      </c>
+      <c r="C11" s="14">
+        <v>-6.5964445447653803E-16</v>
       </c>
       <c r="D11" s="6">
-        <f>PI()/4</f>
-        <v>0.78539816339744828</v>
+        <v>-1.5707963267949001</v>
       </c>
       <c r="E11" s="6">
-        <f>PI()/4</f>
-        <v>0.78539816339744828</v>
+        <v>-3.14159265358979</v>
       </c>
       <c r="F11" s="6">
         <v>0</v>
@@ -2194,20 +2187,16 @@
         <v>27</v>
       </c>
       <c r="B12" s="6">
-        <f>PI()/4</f>
-        <v>0.78539816339744828</v>
+        <v>-3.14159265358979</v>
       </c>
       <c r="C12" s="6">
-        <f>PI()/4</f>
-        <v>0.78539816339744828</v>
+        <v>-1.5707963267948899</v>
       </c>
       <c r="D12" s="6">
-        <f>PI()/4</f>
-        <v>0.78539816339744828</v>
+        <v>0</v>
       </c>
       <c r="E12" s="6">
-        <f>PI()/4</f>
-        <v>0.78539816339744828</v>
+        <v>1.5707963267949001</v>
       </c>
       <c r="F12" s="6">
         <v>0</v>
@@ -2224,20 +2213,16 @@
         <v>28</v>
       </c>
       <c r="B13" s="6">
-        <f>PI()/4</f>
-        <v>0.78539816339744828</v>
-      </c>
-      <c r="C13" s="6">
-        <f>PI()/4</f>
-        <v>0.78539816339744828</v>
+        <v>1.5707963267949001</v>
+      </c>
+      <c r="C13" s="14">
+        <v>-7.7764259651925802E-16</v>
       </c>
       <c r="D13" s="6">
-        <f>PI()/4</f>
-        <v>0.78539816339744828</v>
+        <v>-1.5707963267949001</v>
       </c>
       <c r="E13" s="6">
-        <f>PI()/2</f>
-        <v>1.5707963267948966</v>
+        <v>3.14159265358979</v>
       </c>
       <c r="F13" s="6">
         <v>0</v>

--- a/variables.xlsx
+++ b/variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Non-Hermitian Gauge Field\non-hermitian-gauge-field\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF94ECB3-438A-413E-8F7D-048A4CB9CC38}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA21519-66A3-4F73-8012-37B130E9D383}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="852" yWindow="-108" windowWidth="22296" windowHeight="13176" tabRatio="1000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9852" yWindow="2592" windowWidth="7500" windowHeight="6000" tabRatio="1000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hex_array" sheetId="30" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="rect_array" sheetId="32" r:id="rId3"/>
     <sheet name="rect_map" sheetId="33" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -331,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -347,6 +347,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -688,7 +689,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1252,20 +1253,16 @@
         <v>25</v>
       </c>
       <c r="B10" s="6">
-        <f>PI()/4</f>
-        <v>0.78539816339744828</v>
+        <v>-3.14159265358979</v>
       </c>
       <c r="C10" s="6">
-        <f>PI()/4</f>
-        <v>0.78539816339744828</v>
-      </c>
-      <c r="D10" s="6">
-        <f>-PI()/4</f>
-        <v>-0.78539816339744828</v>
+        <v>-1.5707963267948899</v>
+      </c>
+      <c r="D10" s="14">
+        <v>-7.7402390925738896E-17</v>
       </c>
       <c r="E10" s="6">
-        <f>PI()/4</f>
-        <v>0.78539816339744828</v>
+        <v>1.5707963267949001</v>
       </c>
       <c r="F10" s="6">
         <v>0</v>
@@ -1285,20 +1282,16 @@
         <v>26</v>
       </c>
       <c r="B11" s="6">
-        <f>PI()/4</f>
-        <v>0.78539816339744828</v>
-      </c>
-      <c r="C11" s="6">
-        <f>PI()/2</f>
-        <v>1.5707963267948966</v>
+        <v>1.5707963267949001</v>
+      </c>
+      <c r="C11" s="14">
+        <v>-6.5964445447653803E-16</v>
       </c>
       <c r="D11" s="6">
-        <f>PI()/4</f>
-        <v>0.78539816339744828</v>
+        <v>-1.5707963267949001</v>
       </c>
       <c r="E11" s="6">
-        <f>PI()/4</f>
-        <v>0.78539816339744828</v>
+        <v>-3.14159265358979</v>
       </c>
       <c r="F11" s="6">
         <v>0</v>
@@ -1315,20 +1308,16 @@
         <v>27</v>
       </c>
       <c r="B12" s="6">
-        <f>PI()/4</f>
-        <v>0.78539816339744828</v>
+        <v>-3.14159265358979</v>
       </c>
       <c r="C12" s="6">
-        <f>PI()/4</f>
-        <v>0.78539816339744828</v>
+        <v>-1.5707963267948899</v>
       </c>
       <c r="D12" s="6">
-        <f>PI()/4</f>
-        <v>0.78539816339744828</v>
+        <v>0</v>
       </c>
       <c r="E12" s="6">
-        <f>PI()/4</f>
-        <v>0.78539816339744828</v>
+        <v>1.5707963267949001</v>
       </c>
       <c r="F12" s="6">
         <v>0</v>
@@ -1345,20 +1334,16 @@
         <v>28</v>
       </c>
       <c r="B13" s="6">
-        <f>PI()/4</f>
-        <v>0.78539816339744828</v>
-      </c>
-      <c r="C13" s="6">
-        <f>PI()/4</f>
-        <v>0.78539816339744828</v>
+        <v>1.5707963267949001</v>
+      </c>
+      <c r="C13" s="14">
+        <v>-7.7764259651925802E-16</v>
       </c>
       <c r="D13" s="6">
-        <f>PI()/4</f>
-        <v>0.78539816339744828</v>
+        <v>-1.5707963267949001</v>
       </c>
       <c r="E13" s="6">
-        <f>PI()/2</f>
-        <v>1.5707963267948966</v>
+        <v>3.14159265358979</v>
       </c>
       <c r="F13" s="6">
         <v>0</v>
@@ -1568,8 +1553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1680,8 +1665,8 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <f>980*10^-9</f>
-        <v>9.8000000000000015E-7</v>
+        <f>1550*10^-9</f>
+        <v>1.5500000000000002E-6</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1692,8 +1677,8 @@
         <v>61</v>
       </c>
       <c r="B11" s="3">
-        <f>2*10^-6</f>
-        <v>1.9999999999999999E-6</v>
+        <f>3*10^-6</f>
+        <v>3.0000000000000001E-6</v>
       </c>
       <c r="C11" t="s">
         <v>62</v>
@@ -1704,8 +1689,8 @@
         <v>52</v>
       </c>
       <c r="B12" s="8">
-        <f>12*10^-6</f>
-        <v>1.2E-5</v>
+        <f>5000*10^-9</f>
+        <v>5.0000000000000004E-6</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1713,7 +1698,7 @@
         <v>18</v>
       </c>
       <c r="B13" s="3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
@@ -1724,8 +1709,8 @@
         <v>16</v>
       </c>
       <c r="B14" s="2">
-        <f>0.5*10^-6</f>
-        <v>4.9999999999999998E-7</v>
+        <f>50*10^-9</f>
+        <v>5.0000000000000004E-8</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
@@ -1758,7 +1743,7 @@
         <v>36</v>
       </c>
       <c r="B17">
-        <v>-20</v>
+        <v>-15</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
@@ -1769,7 +1754,7 @@
         <v>37</v>
       </c>
       <c r="B18">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
@@ -1780,7 +1765,7 @@
         <v>38</v>
       </c>
       <c r="B19" s="3">
-        <v>-20</v>
+        <v>-5</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -1791,7 +1776,7 @@
         <v>39</v>
       </c>
       <c r="B20" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
@@ -1873,20 +1858,25 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -1915,21 +1905,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="6">
-        <v>1</v>
+        <v>0.97424444887935002</v>
       </c>
       <c r="C2" s="6">
-        <v>1</v>
+        <v>0.99619566119390601</v>
       </c>
       <c r="D2" s="6">
-        <v>1</v>
+        <v>0.97231441798528395</v>
       </c>
       <c r="E2" s="6">
-        <v>1</v>
+        <v>1.1020109124360499E-2</v>
       </c>
       <c r="F2" s="6">
         <v>0</v>
@@ -1944,21 +1934,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="6">
-        <v>1</v>
+      <c r="C3" s="14">
+        <v>3.8144526341984899E-10</v>
       </c>
       <c r="D3" s="6">
-        <v>1</v>
+        <v>0.99657829472069503</v>
       </c>
       <c r="E3" s="6">
-        <v>1</v>
+        <v>9.3673916914821295E-3</v>
       </c>
       <c r="F3" s="6">
         <v>0</v>
@@ -1969,22 +1959,46 @@
       <c r="H3" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M3">
+        <v>0.99999999999999201</v>
+      </c>
+      <c r="N3">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="O3">
+        <v>0.99999999999999301</v>
+      </c>
+      <c r="P3">
+        <v>0.999999999999998</v>
+      </c>
+      <c r="R3">
+        <v>0.97424444887935002</v>
+      </c>
+      <c r="S3">
+        <v>0.99619566119390601</v>
+      </c>
+      <c r="T3">
+        <v>0.97231441798528395</v>
+      </c>
+      <c r="U3">
+        <v>1.1020109124360499E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="6">
-        <v>1</v>
+        <v>0.976105727867007</v>
       </c>
       <c r="C4" s="6">
-        <v>1</v>
+        <v>0.99998767122072096</v>
       </c>
       <c r="D4" s="6">
-        <v>1</v>
+        <v>0.97414537187727002</v>
       </c>
       <c r="E4" s="6">
-        <v>1</v>
+        <v>7.5754923782882996E-3</v>
       </c>
       <c r="F4" s="6">
         <v>0</v>
@@ -1995,22 +2009,46 @@
       <c r="H4" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>0.99999999999999201</v>
+      </c>
+      <c r="O4">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="P4">
+        <v>0.99999999999999301</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4" s="15">
+        <v>3.8144526341984899E-10</v>
+      </c>
+      <c r="T4">
+        <v>0.99657829472069503</v>
+      </c>
+      <c r="U4">
+        <v>9.3673916914821295E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="6">
-        <v>1</v>
+        <v>9.51381628212058E-3</v>
       </c>
       <c r="C5" s="6">
-        <v>1</v>
+        <v>9.7465865805018703E-3</v>
       </c>
       <c r="D5" s="6">
-        <v>1</v>
-      </c>
-      <c r="E5" s="6">
-        <v>1</v>
+        <v>9.4947092671718407E-3</v>
+      </c>
+      <c r="E5" s="14">
+        <v>7.3836102663931598E-5</v>
       </c>
       <c r="F5" s="6">
         <v>0</v>
@@ -2021,8 +2059,32 @@
       <c r="H5" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.976105727867007</v>
+      </c>
+      <c r="S5">
+        <v>0.99998767122072096</v>
+      </c>
+      <c r="T5">
+        <v>0.97414537187727002</v>
+      </c>
+      <c r="U5">
+        <v>7.5754923782882996E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>53</v>
       </c>
@@ -2047,8 +2109,32 @@
       <c r="H6" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>9.51381628212058E-3</v>
+      </c>
+      <c r="S6">
+        <v>9.7465865805018703E-3</v>
+      </c>
+      <c r="T6">
+        <v>9.4947092671718407E-3</v>
+      </c>
+      <c r="U6" s="15">
+        <v>7.3836102663931598E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>54</v>
       </c>
@@ -2074,7 +2160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>55</v>
       </c>
@@ -2101,7 +2187,7 @@
       </c>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
@@ -2127,21 +2213,21 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10">
+        <v>1.5707963267949001</v>
+      </c>
+      <c r="C10" s="15">
         <v>-3.14159265358979</v>
       </c>
-      <c r="C10" s="6">
-        <v>-1.5707963267948899</v>
-      </c>
-      <c r="D10" s="14">
-        <v>-7.7402390925738896E-17</v>
-      </c>
-      <c r="E10" s="6">
-        <v>1.5707963267949001</v>
+      <c r="D10">
+        <v>-1.5707963267949001</v>
+      </c>
+      <c r="E10" s="15">
+        <v>-3.14159265358979</v>
       </c>
       <c r="F10" s="6">
         <v>0</v>
@@ -2155,49 +2241,97 @@
       <c r="I10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M10">
+        <v>-1.5707963267949001</v>
+      </c>
+      <c r="N10" s="15">
+        <v>-2.6371801803275898E-15</v>
+      </c>
+      <c r="O10">
+        <v>1.5707963267948899</v>
+      </c>
+      <c r="P10">
+        <v>3.14159265358979</v>
+      </c>
+      <c r="R10">
+        <v>1.5707963267949001</v>
+      </c>
+      <c r="S10">
+        <v>-3.14159265358979</v>
+      </c>
+      <c r="T10">
+        <v>-1.5707963267949001</v>
+      </c>
+      <c r="U10">
+        <v>-3.14159265358979</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>-1.5707963267960701</v>
+      </c>
+      <c r="D11" s="15">
+        <v>-1.42806606442705E-16</v>
+      </c>
+      <c r="E11">
+        <v>-1.5707963267949001</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>3.14159265358979</v>
+      </c>
+      <c r="N11">
         <v>1.5707963267949001</v>
       </c>
-      <c r="C11" s="14">
-        <v>-6.5964445447653803E-16</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="O11" s="15">
+        <v>-1.97559097938589E-15</v>
+      </c>
+      <c r="P11">
         <v>-1.5707963267949001</v>
       </c>
-      <c r="E11" s="6">
-        <v>-3.14159265358979</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-      <c r="H11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>-1.5707963267960701</v>
+      </c>
+      <c r="T11" s="15">
+        <v>-1.42806606442705E-16</v>
+      </c>
+      <c r="U11">
+        <v>-1.5707963267949001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="6">
-        <v>-3.14159265358979</v>
-      </c>
-      <c r="C12" s="6">
-        <v>-1.5707963267948899</v>
-      </c>
-      <c r="D12" s="6">
-        <v>0</v>
-      </c>
-      <c r="E12" s="6">
+      <c r="B12">
+        <v>-1.5707963267949001</v>
+      </c>
+      <c r="C12">
+        <v>3.14159265358979</v>
+      </c>
+      <c r="D12">
         <v>1.5707963267949001</v>
       </c>
+      <c r="E12" s="15">
+        <v>3.9691267103524301E-16</v>
+      </c>
       <c r="F12" s="6">
         <v>0</v>
       </c>
@@ -2207,34 +2341,82 @@
       <c r="H12" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M12">
+        <v>1.5707963267949001</v>
+      </c>
+      <c r="N12">
+        <v>3.14159265358979</v>
+      </c>
+      <c r="O12">
+        <v>-1.5707963267949001</v>
+      </c>
+      <c r="P12" s="15">
+        <v>-3.2580380556241798E-16</v>
+      </c>
+      <c r="R12">
+        <v>-1.5707963267949001</v>
+      </c>
+      <c r="S12">
+        <v>3.14159265358979</v>
+      </c>
+      <c r="T12">
+        <v>1.5707963267949001</v>
+      </c>
+      <c r="U12" s="15">
+        <v>3.9691267103524301E-16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13">
+        <v>-3.14159265358979</v>
+      </c>
+      <c r="C13">
         <v>1.5707963267949001</v>
       </c>
-      <c r="C13" s="14">
-        <v>-7.7764259651925802E-16</v>
-      </c>
-      <c r="D13" s="6">
+      <c r="D13" s="15">
+        <v>6.7110407099101505E-16</v>
+      </c>
+      <c r="E13">
         <v>-1.5707963267949001</v>
       </c>
-      <c r="E13" s="6">
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>-1.5707963267949001</v>
+      </c>
+      <c r="O13">
         <v>3.14159265358979</v>
       </c>
-      <c r="F13" s="6">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6">
-        <v>0</v>
-      </c>
-      <c r="H13" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="P13">
+        <v>1.5707963267949001</v>
+      </c>
+      <c r="R13">
+        <v>-3.14159265358979</v>
+      </c>
+      <c r="S13">
+        <v>1.5707963267949001</v>
+      </c>
+      <c r="T13" s="15">
+        <v>6.7110407099101505E-16</v>
+      </c>
+      <c r="U13">
+        <v>-1.5707963267949001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>53</v>
       </c>
@@ -2260,7 +2442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>54</v>
       </c>
@@ -2286,7 +2468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>55</v>
       </c>
@@ -2309,6 +2491,120 @@
         <v>0</v>
       </c>
       <c r="H16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17" s="6"/>
+      <c r="M17" s="6">
+        <v>-3.14159265358979</v>
+      </c>
+      <c r="N17" s="6">
+        <v>-1.5707963267948899</v>
+      </c>
+      <c r="O17" s="14">
+        <v>-7.7402390925738896E-17</v>
+      </c>
+      <c r="P17" s="6">
+        <v>1.5707963267949001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="M18" s="6">
+        <v>1.5707963267949001</v>
+      </c>
+      <c r="N18" s="14">
+        <v>-6.5964445447653803E-16</v>
+      </c>
+      <c r="O18" s="6">
+        <v>-1.5707963267949001</v>
+      </c>
+      <c r="P18" s="6">
+        <v>-3.14159265358979</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="M19" s="6">
+        <v>-3.14159265358979</v>
+      </c>
+      <c r="N19" s="6">
+        <v>-1.5707963267948899</v>
+      </c>
+      <c r="O19" s="6">
+        <v>0</v>
+      </c>
+      <c r="P19" s="6">
+        <v>1.5707963267949001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="M20" s="6">
+        <v>1.5707963267949001</v>
+      </c>
+      <c r="N20" s="14">
+        <v>-7.7764259651925802E-16</v>
+      </c>
+      <c r="O20" s="6">
+        <v>-1.5707963267949001</v>
+      </c>
+      <c r="P20" s="6">
+        <v>3.14159265358979</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="M23">
+        <v>-1.5707963267949001</v>
+      </c>
+      <c r="N23">
+        <v>-3.14159265358979</v>
+      </c>
+      <c r="O23">
+        <v>1.5707963267948899</v>
+      </c>
+      <c r="P23" s="15">
+        <v>-4.4469257625553902E-17</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>1.5707963267948899</v>
+      </c>
+      <c r="O24">
+        <v>-3.14159265358979</v>
+      </c>
+      <c r="P24">
+        <v>-1.5707963267949001</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
         <v>0</v>
       </c>
     </row>

--- a/variables.xlsx
+++ b/variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Non-Hermitian Gauge Field\non-hermitian-gauge-field\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA21519-66A3-4F73-8012-37B130E9D383}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913FA671-C01B-4C29-9E38-970A484AE509}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9852" yWindow="2592" windowWidth="7500" windowHeight="6000" tabRatio="1000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3360" yWindow="5364" windowWidth="13884" windowHeight="7020" tabRatio="1000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hex_array" sheetId="30" r:id="rId1"/>
@@ -1553,7 +1553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -1864,10 +1864,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1876,7 +1876,7 @@
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -1905,20 +1905,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2">
         <v>0.97424444887935002</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2">
         <v>0.99619566119390601</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2">
         <v>0.97231441798528395</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2">
         <v>1.1020109124360499E-2</v>
       </c>
       <c r="F2" s="6">
@@ -1934,20 +1934,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="14">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15">
         <v>3.8144526341984899E-10</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3">
         <v>0.99657829472069503</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3">
         <v>9.3673916914821295E-3</v>
       </c>
       <c r="F3" s="6">
@@ -1983,21 +1983,33 @@
       <c r="U3">
         <v>1.1020109124360499E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W3" s="4">
+        <v>0.98013566865849999</v>
+      </c>
+      <c r="X3">
+        <v>0.95681499212971</v>
+      </c>
+      <c r="Y3">
+        <v>1.30388544629434E-2</v>
+      </c>
+      <c r="Z3">
+        <v>1.7522546300114699E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4">
         <v>0.976105727867007</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4">
         <v>0.99998767122072096</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4">
         <v>0.97414537187727002</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4">
         <v>7.5754923782882996E-3</v>
       </c>
       <c r="F4" s="6">
@@ -2033,21 +2045,33 @@
       <c r="U4">
         <v>9.3673916914821295E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>0.94208211552783505</v>
+      </c>
+      <c r="Y4">
+        <v>8.2886087147810393E-3</v>
+      </c>
+      <c r="Z4" s="15">
+        <v>6.7423112798679205E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5">
         <v>9.51381628212058E-3</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5">
         <v>9.7465865805018703E-3</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5">
         <v>9.4947092671718407E-3</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="15">
         <v>7.3836102663931598E-5</v>
       </c>
       <c r="F5" s="6">
@@ -2083,8 +2107,20 @@
       <c r="U5">
         <v>7.5754923782882996E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W5">
+        <v>9.3076828438806904E-3</v>
+      </c>
+      <c r="X5">
+        <v>1.29452156440658E-2</v>
+      </c>
+      <c r="Y5">
+        <v>4.81352450232168E-4</v>
+      </c>
+      <c r="Z5" s="15">
+        <v>1.07734860340645E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>53</v>
       </c>
@@ -2133,8 +2169,20 @@
       <c r="U6" s="15">
         <v>7.3836102663931598E-5</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W6">
+        <v>1.13000088349855E-4</v>
+      </c>
+      <c r="X6">
+        <v>1.5716161970957899E-4</v>
+      </c>
+      <c r="Y6" s="15">
+        <v>5.8438679439331698E-6</v>
+      </c>
+      <c r="Z6" s="15">
+        <v>1.30795697930945E-7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>54</v>
       </c>
@@ -2160,7 +2208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>55</v>
       </c>
@@ -2187,7 +2235,7 @@
       </c>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
@@ -2213,7 +2261,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>25</v>
       </c>
@@ -2266,7 +2314,7 @@
         <v>-3.14159265358979</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>26</v>
       </c>
@@ -2316,7 +2364,7 @@
         <v>-1.5707963267949001</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>27</v>
       </c>
@@ -2366,7 +2414,7 @@
         <v>3.9691267103524301E-16</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>28</v>
       </c>
@@ -2416,7 +2464,7 @@
         <v>-1.5707963267949001</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>53</v>
       </c>
@@ -2442,7 +2490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>54</v>
       </c>
@@ -2468,7 +2516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>55</v>
       </c>
@@ -2495,7 +2543,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B17" s="6"/>
       <c r="M17" s="6">
         <v>-3.14159265358979</v>
@@ -2509,8 +2557,20 @@
       <c r="P17" s="6">
         <v>1.5707963267949001</v>
       </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="R17">
+        <v>1.5707963267949001</v>
+      </c>
+      <c r="S17">
+        <v>3.14159265358979</v>
+      </c>
+      <c r="T17">
+        <v>1.5707963267949001</v>
+      </c>
+      <c r="U17" s="15">
+        <v>-9.1787067742075295E-16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
       <c r="M18" s="6">
         <v>1.5707963267949001</v>
       </c>
@@ -2523,8 +2583,20 @@
       <c r="P18" s="6">
         <v>-3.14159265358979</v>
       </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>-1.5707963267949001</v>
+      </c>
+      <c r="T18">
+        <v>-3.14159265358979</v>
+      </c>
+      <c r="U18">
+        <v>1.5707963267949001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
       <c r="M19" s="6">
         <v>-3.14159265358979</v>
       </c>
@@ -2537,8 +2609,20 @@
       <c r="P19" s="6">
         <v>1.5707963267949001</v>
       </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="R19">
+        <v>-1.5707963267949001</v>
+      </c>
+      <c r="S19">
+        <v>-3.14159265358979</v>
+      </c>
+      <c r="T19">
+        <v>1.5707963267949001</v>
+      </c>
+      <c r="U19" s="15">
+        <v>2.0763670340064399E-15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
       <c r="M20" s="6">
         <v>1.5707963267949001</v>
       </c>
@@ -2551,8 +2635,20 @@
       <c r="P20" s="6">
         <v>3.14159265358979</v>
       </c>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="R20">
+        <v>3.14159265358979</v>
+      </c>
+      <c r="S20">
+        <v>1.5707963267949001</v>
+      </c>
+      <c r="T20" s="15">
+        <v>3.7691311382612097E-15</v>
+      </c>
+      <c r="U20">
+        <v>-1.5707963267949001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
       <c r="M23">
         <v>-1.5707963267949001</v>
       </c>
@@ -2566,7 +2662,7 @@
         <v>-4.4469257625553902E-17</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
       <c r="M24">
         <v>0</v>
       </c>
@@ -2580,7 +2676,7 @@
         <v>-1.5707963267949001</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
       <c r="M25">
         <v>0</v>
       </c>
@@ -2594,7 +2690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
       <c r="M26">
         <v>0</v>
       </c>
@@ -2610,5 +2706,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/variables.xlsx
+++ b/variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Non-Hermitian Gauge Field\non-hermitian-gauge-field\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913FA671-C01B-4C29-9E38-970A484AE509}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFEF3B1-983C-443A-95D9-278F5228BA08}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="5364" windowWidth="13884" windowHeight="7020" tabRatio="1000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="852" yWindow="-108" windowWidth="22296" windowHeight="13176" tabRatio="1000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hex_array" sheetId="30" r:id="rId1"/>
@@ -1553,8 +1553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1698,7 +1698,7 @@
         <v>18</v>
       </c>
       <c r="B13" s="3">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
@@ -1709,8 +1709,8 @@
         <v>16</v>
       </c>
       <c r="B14" s="2">
-        <f>50*10^-9</f>
-        <v>5.0000000000000004E-8</v>
+        <f>100*10^-9</f>
+        <v>1.0000000000000001E-7</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
@@ -1866,8 +1866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1910,16 +1910,16 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>0.97424444887935002</v>
+        <v>0.99999999999998801</v>
       </c>
       <c r="C2">
-        <v>0.99619566119390601</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D2">
-        <v>0.97231441798528395</v>
+        <v>0.99999999999998501</v>
       </c>
       <c r="E2">
-        <v>1.1020109124360499E-2</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="F2" s="6">
         <v>0</v>
@@ -1939,16 +1939,16 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="15">
-        <v>3.8144526341984899E-10</v>
+        <v>0.999999999999997</v>
+      </c>
+      <c r="C3">
+        <v>0.99999999999999101</v>
       </c>
       <c r="D3">
-        <v>0.99657829472069503</v>
+        <v>0.999999999999998</v>
       </c>
       <c r="E3">
-        <v>9.3673916914821295E-3</v>
+        <v>0.99999999999998601</v>
       </c>
       <c r="F3" s="6">
         <v>0</v>
@@ -2001,16 +2001,16 @@
         <v>27</v>
       </c>
       <c r="B4">
-        <v>0.976105727867007</v>
+        <v>0.99999999999998801</v>
       </c>
       <c r="C4">
-        <v>0.99998767122072096</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D4">
-        <v>0.97414537187727002</v>
+        <v>0.99999999999999201</v>
       </c>
       <c r="E4">
-        <v>7.5754923782882996E-3</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="F4" s="6">
         <v>0</v>
@@ -2063,16 +2063,16 @@
         <v>28</v>
       </c>
       <c r="B5">
-        <v>9.51381628212058E-3</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>9.7465865805018703E-3</v>
+        <v>0.99999999999998701</v>
       </c>
       <c r="D5">
-        <v>9.4947092671718407E-3</v>
-      </c>
-      <c r="E5" s="15">
-        <v>7.3836102663931598E-5</v>
+        <v>0.999999999999998</v>
+      </c>
+      <c r="E5">
+        <v>0.99999999999998901</v>
       </c>
       <c r="F5" s="6">
         <v>0</v>
@@ -2266,16 +2266,16 @@
         <v>25</v>
       </c>
       <c r="B10">
+        <v>3.14159265358979</v>
+      </c>
+      <c r="C10" s="15">
         <v>1.5707963267949001</v>
       </c>
-      <c r="C10" s="15">
-        <v>-3.14159265358979</v>
-      </c>
-      <c r="D10">
-        <v>-1.5707963267949001</v>
+      <c r="D10" s="15">
+        <v>1.7605981823016401E-16</v>
       </c>
       <c r="E10" s="15">
-        <v>-3.14159265358979</v>
+        <v>-1.5707963267948899</v>
       </c>
       <c r="F10" s="6">
         <v>0</v>
@@ -2319,16 +2319,16 @@
         <v>26</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>-1.5707963267948899</v>
       </c>
       <c r="C11">
-        <v>-1.5707963267960701</v>
+        <v>0</v>
       </c>
       <c r="D11" s="15">
-        <v>-1.42806606442705E-16</v>
+        <v>1.5707963267949001</v>
       </c>
       <c r="E11">
-        <v>-1.5707963267949001</v>
+        <v>3.14159265358979</v>
       </c>
       <c r="F11" s="6">
         <v>0</v>
@@ -2369,16 +2369,16 @@
         <v>27</v>
       </c>
       <c r="B12">
-        <v>-1.5707963267949001</v>
+        <v>-3.14159265358979</v>
       </c>
       <c r="C12">
-        <v>3.14159265358979</v>
-      </c>
-      <c r="D12">
         <v>1.5707963267949001</v>
       </c>
+      <c r="D12" s="15">
+        <v>1.1133909495269E-15</v>
+      </c>
       <c r="E12" s="15">
-        <v>3.9691267103524301E-16</v>
+        <v>-1.5707963267948899</v>
       </c>
       <c r="F12" s="6">
         <v>0</v>
@@ -2419,16 +2419,16 @@
         <v>28</v>
       </c>
       <c r="B13">
-        <v>-3.14159265358979</v>
-      </c>
-      <c r="C13">
+        <v>-1.5707963267948899</v>
+      </c>
+      <c r="C13" s="15">
+        <v>5.8922091373622498E-16</v>
+      </c>
+      <c r="D13">
         <v>1.5707963267949001</v>
       </c>
-      <c r="D13" s="15">
-        <v>6.7110407099101505E-16</v>
-      </c>
       <c r="E13">
-        <v>-1.5707963267949001</v>
+        <v>3.14159265358979</v>
       </c>
       <c r="F13" s="6">
         <v>0</v>

--- a/variables.xlsx
+++ b/variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Non-Hermitian Gauge Field\non-hermitian-gauge-field\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFEF3B1-983C-443A-95D9-278F5228BA08}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AF70CF-5063-429D-8CD4-9E89D023CE7F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="852" yWindow="-108" windowWidth="22296" windowHeight="13176" tabRatio="1000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9660" yWindow="2868" windowWidth="13884" windowHeight="7020" tabRatio="1000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hex_array" sheetId="30" r:id="rId1"/>
@@ -1553,8 +1553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1677,8 +1677,8 @@
         <v>61</v>
       </c>
       <c r="B11" s="3">
-        <f>3*10^-6</f>
-        <v>3.0000000000000001E-6</v>
+        <f>2*10^-6</f>
+        <v>1.9999999999999999E-6</v>
       </c>
       <c r="C11" t="s">
         <v>62</v>
@@ -1743,7 +1743,7 @@
         <v>36</v>
       </c>
       <c r="B17">
-        <v>-15</v>
+        <v>-20</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
@@ -1776,7 +1776,7 @@
         <v>39</v>
       </c>
       <c r="B20" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>

--- a/variables.xlsx
+++ b/variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Non-Hermitian Gauge Field\non-hermitian-gauge-field\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AF70CF-5063-429D-8CD4-9E89D023CE7F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E57140-F477-4225-AF7E-7D3533D42CAE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="2868" windowWidth="13884" windowHeight="7020" tabRatio="1000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="852" yWindow="-108" windowWidth="22296" windowHeight="13176" tabRatio="1000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hex_array" sheetId="30" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="68">
   <si>
     <t>how many rows between different sets of intensity/phase</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>plot line on far field image where intensity slice is taken from?</t>
+  </si>
+  <si>
+    <t>spot size of resonator (1/e beam amplitude radius)</t>
   </si>
 </sst>
 </file>
@@ -689,7 +692,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1553,8 +1556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1677,11 +1680,11 @@
         <v>61</v>
       </c>
       <c r="B11" s="3">
-        <f>2*10^-6</f>
-        <v>1.9999999999999999E-6</v>
+        <f>3*10^-6</f>
+        <v>3.0000000000000001E-6</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1867,7 +1870,7 @@
   <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:E13"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/variables.xlsx
+++ b/variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Non-Hermitian Gauge Field\non-hermitian-gauge-field\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E57140-F477-4225-AF7E-7D3533D42CAE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CD33F7-8783-48F8-9113-133656DAF6A5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="852" yWindow="-108" windowWidth="22296" windowHeight="13176" tabRatio="1000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1557,7 +1557,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1680,8 +1680,8 @@
         <v>61</v>
       </c>
       <c r="B11" s="3">
-        <f>3*10^-6</f>
-        <v>3.0000000000000001E-6</v>
+        <f>5*10^-6</f>
+        <v>4.9999999999999996E-6</v>
       </c>
       <c r="C11" t="s">
         <v>67</v>
@@ -1691,9 +1691,8 @@
       <c r="A12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="8">
-        <f>5000*10^-9</f>
-        <v>5.0000000000000004E-6</v>
+      <c r="B12" s="15">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1701,7 +1700,7 @@
         <v>18</v>
       </c>
       <c r="B13" s="3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
@@ -1712,8 +1711,8 @@
         <v>16</v>
       </c>
       <c r="B14" s="2">
-        <f>100*10^-9</f>
-        <v>1.0000000000000001E-7</v>
+        <f>500*10^-9</f>
+        <v>5.0000000000000008E-7</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
@@ -1746,7 +1745,7 @@
         <v>36</v>
       </c>
       <c r="B17">
-        <v>-20</v>
+        <v>-40</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
@@ -1779,7 +1778,7 @@
         <v>39</v>
       </c>
       <c r="B20" s="3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>

--- a/variables.xlsx
+++ b/variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Non-Hermitian Gauge Field\non-hermitian-gauge-field\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CD33F7-8783-48F8-9113-133656DAF6A5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E5C180-E848-4C24-A7CD-8697A5F5C00E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="852" yWindow="-108" windowWidth="22296" windowHeight="13176" tabRatio="1000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -334,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -351,6 +351,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1557,13 +1560,13 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="64.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1571,7 +1574,7 @@
       <c r="A1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="16" t="s">
         <v>44</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -1582,7 +1585,7 @@
       <c r="A2" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="17">
         <v>0</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -1593,7 +1596,7 @@
       <c r="A3" t="s">
         <v>42</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="15">
         <v>0</v>
       </c>
       <c r="C3" t="s">
@@ -1604,7 +1607,7 @@
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="15">
         <v>0</v>
       </c>
     </row>
@@ -1612,7 +1615,7 @@
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="15">
         <v>0</v>
       </c>
       <c r="C5" t="s">
@@ -1623,7 +1626,7 @@
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="15">
         <v>4</v>
       </c>
       <c r="C6" t="s">
@@ -1634,7 +1637,7 @@
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="15">
         <v>17</v>
       </c>
       <c r="C7" t="s">
@@ -1645,7 +1648,7 @@
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="15">
         <v>1</v>
       </c>
       <c r="C8" t="s">
@@ -1656,7 +1659,7 @@
       <c r="A9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="15">
         <v>7</v>
       </c>
       <c r="C9" t="s">
@@ -1667,7 +1670,7 @@
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="15">
         <f>1550*10^-9</f>
         <v>1.5500000000000002E-6</v>
       </c>
@@ -1679,9 +1682,8 @@
       <c r="A11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="3">
-        <f>5*10^-6</f>
-        <v>4.9999999999999996E-6</v>
+      <c r="B11" s="15">
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="C11" t="s">
         <v>67</v>
@@ -1699,7 +1701,7 @@
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="15">
         <v>2000</v>
       </c>
       <c r="C13" t="s">
@@ -1710,7 +1712,7 @@
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="18">
         <f>500*10^-9</f>
         <v>5.0000000000000008E-7</v>
       </c>
@@ -1722,7 +1724,7 @@
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="18">
         <v>10</v>
       </c>
       <c r="C15" t="s">
@@ -1733,7 +1735,7 @@
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="15">
         <v>1</v>
       </c>
       <c r="C16" t="s">
@@ -1744,7 +1746,7 @@
       <c r="A17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="15">
         <v>-40</v>
       </c>
       <c r="C17" t="s">
@@ -1755,7 +1757,7 @@
       <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="15">
         <v>5</v>
       </c>
       <c r="C18" t="s">
@@ -1766,7 +1768,7 @@
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="15">
         <v>-5</v>
       </c>
       <c r="C19" t="s">
@@ -1777,7 +1779,7 @@
       <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="15">
         <v>40</v>
       </c>
       <c r="C20" t="s">
@@ -1788,7 +1790,7 @@
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="15">
         <v>20</v>
       </c>
       <c r="C21" t="s">
@@ -1799,7 +1801,7 @@
       <c r="A22" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="15">
         <v>12</v>
       </c>
       <c r="C22" t="s">
@@ -1810,7 +1812,7 @@
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="15">
         <v>0</v>
       </c>
       <c r="C23" t="s">
@@ -1821,7 +1823,7 @@
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="15">
         <v>1</v>
       </c>
       <c r="C24" t="s">
@@ -1832,7 +1834,7 @@
       <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="15">
         <v>0.6</v>
       </c>
       <c r="C25" t="s">
@@ -1843,7 +1845,7 @@
       <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="15">
         <v>13</v>
       </c>
       <c r="C26" t="s">
@@ -1854,7 +1856,7 @@
       <c r="A27" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="15">
         <v>2</v>
       </c>
     </row>
@@ -1869,7 +1871,7 @@
   <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G15" sqref="B10:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1912,22 +1914,22 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>0.99999999999998801</v>
+        <v>0.99115050000000005</v>
       </c>
       <c r="C2">
-        <v>0.999999999999996</v>
+        <v>0.98237931499999998</v>
       </c>
       <c r="D2">
-        <v>0.99999999999998501</v>
+        <v>0.97368574900000004</v>
       </c>
       <c r="E2">
-        <v>0.999999999999999</v>
+        <v>0.96506911799999995</v>
       </c>
       <c r="F2" s="6">
-        <v>0</v>
+        <v>0.95652873900000002</v>
       </c>
       <c r="G2" s="6">
-        <v>0</v>
+        <v>0.94806393799999999</v>
       </c>
       <c r="H2" s="6">
         <v>0</v>
@@ -1941,22 +1943,22 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>0.999999999999997</v>
-      </c>
-      <c r="C3">
-        <v>0.99999999999999101</v>
+        <v>1</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0.90700000000000003</v>
       </c>
       <c r="D3">
-        <v>0.999999999999998</v>
+        <v>0.91494722900000003</v>
       </c>
       <c r="E3">
-        <v>0.99999999999998601</v>
+        <v>0.92311634600000003</v>
       </c>
       <c r="F3" s="6">
-        <v>0</v>
+        <v>0.93135840199999997</v>
       </c>
       <c r="G3" s="6">
-        <v>0</v>
+        <v>0.93967404700000001</v>
       </c>
       <c r="H3" s="6">
         <v>0</v>
@@ -2003,22 +2005,22 @@
         <v>27</v>
       </c>
       <c r="B4">
-        <v>0.99999999999998801</v>
+        <v>0.93135840199999997</v>
       </c>
       <c r="C4">
-        <v>0.999999999999996</v>
+        <v>0.97368574900000004</v>
       </c>
       <c r="D4">
-        <v>0.99999999999999201</v>
+        <v>0.96506911799999995</v>
       </c>
       <c r="E4">
-        <v>0.999999999999996</v>
+        <v>0.95652873900000002</v>
       </c>
       <c r="F4" s="6">
-        <v>0</v>
+        <v>0.94806393799999999</v>
       </c>
       <c r="G4" s="6">
-        <v>0</v>
+        <v>0.93967404700000001</v>
       </c>
       <c r="H4" s="6">
         <v>0</v>
@@ -2065,22 +2067,22 @@
         <v>28</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.93967404700000001</v>
       </c>
       <c r="C5">
-        <v>0.99999999999998701</v>
+        <v>0.898825231</v>
       </c>
       <c r="D5">
-        <v>0.999999999999998</v>
-      </c>
-      <c r="E5">
-        <v>0.99999999999998901</v>
+        <v>0.90685040400000005</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0.91500000000000004</v>
       </c>
       <c r="F5" s="6">
-        <v>0</v>
+        <v>0.92311634600000003</v>
       </c>
       <c r="G5" s="6">
-        <v>0</v>
+        <v>0.93135840199999997</v>
       </c>
       <c r="H5" s="6">
         <v>0</v>
@@ -2127,22 +2129,22 @@
         <v>53</v>
       </c>
       <c r="B6" s="6">
-        <v>0</v>
+        <v>0.87517331899999995</v>
       </c>
       <c r="C6" s="6">
-        <v>0</v>
+        <v>0.96506911799999995</v>
       </c>
       <c r="D6" s="6">
-        <v>0</v>
+        <v>0.95652873900000002</v>
       </c>
       <c r="E6" s="6">
-        <v>0</v>
+        <v>0.94806393799999999</v>
       </c>
       <c r="F6" s="6">
-        <v>0</v>
+        <v>0.93967404700000001</v>
       </c>
       <c r="G6" s="6">
-        <v>0</v>
+        <v>0.93135840199999997</v>
       </c>
       <c r="H6" s="6">
         <v>0</v>
@@ -2189,22 +2191,22 @@
         <v>54</v>
       </c>
       <c r="B7" s="6">
-        <v>0</v>
+        <v>0.88298731500000005</v>
       </c>
       <c r="C7" s="6">
-        <v>0</v>
+        <v>0.89087107799999998</v>
       </c>
       <c r="D7" s="6">
-        <v>0</v>
+        <v>0.898825231</v>
       </c>
       <c r="E7" s="6">
-        <v>0</v>
+        <v>0.90685040400000005</v>
       </c>
       <c r="F7" s="6">
-        <v>0</v>
+        <v>0.91494722900000003</v>
       </c>
       <c r="G7" s="6">
-        <v>0</v>
+        <v>0.92311634600000003</v>
       </c>
       <c r="H7" s="6">
         <v>0</v>
@@ -2268,22 +2270,22 @@
         <v>25</v>
       </c>
       <c r="B10">
-        <v>3.14159265358979</v>
+        <v>1.570796327</v>
       </c>
       <c r="C10" s="15">
-        <v>1.5707963267949001</v>
+        <v>3.1415926540000001</v>
       </c>
       <c r="D10" s="15">
-        <v>1.7605981823016401E-16</v>
+        <v>-1.570796327</v>
       </c>
       <c r="E10" s="15">
-        <v>-1.5707963267948899</v>
+        <v>-4.2100000000000002E-15</v>
       </c>
       <c r="F10" s="6">
-        <v>0</v>
+        <v>1.570796327</v>
       </c>
       <c r="G10" s="6">
-        <v>0</v>
+        <v>3.1415926540000001</v>
       </c>
       <c r="H10" s="6">
         <v>0</v>
@@ -2321,22 +2323,22 @@
         <v>26</v>
       </c>
       <c r="B11">
-        <v>-1.5707963267948899</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="C11" s="15">
+        <v>-1.570796327</v>
       </c>
       <c r="D11" s="15">
-        <v>1.5707963267949001</v>
+        <v>3.14</v>
       </c>
       <c r="E11">
-        <v>3.14159265358979</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0</v>
+        <v>1.570796327</v>
+      </c>
+      <c r="F11" s="14">
+        <v>-4.7099999999999996E-15</v>
       </c>
       <c r="G11" s="6">
-        <v>0</v>
+        <v>-1.570796327</v>
       </c>
       <c r="H11" s="6">
         <v>0</v>
@@ -2371,22 +2373,22 @@
         <v>27</v>
       </c>
       <c r="B12">
-        <v>-3.14159265358979</v>
-      </c>
-      <c r="C12">
-        <v>1.5707963267949001</v>
+        <v>-1.570796327</v>
+      </c>
+      <c r="C12" s="15">
+        <v>-3.37E-16</v>
       </c>
       <c r="D12" s="15">
-        <v>1.1133909495269E-15</v>
+        <v>1.570796327</v>
       </c>
       <c r="E12" s="15">
-        <v>-1.5707963267948899</v>
+        <v>3.14</v>
       </c>
       <c r="F12" s="6">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0</v>
+        <v>-1.570796327</v>
+      </c>
+      <c r="G12" s="14">
+        <v>-3.6899999999999996E-15</v>
       </c>
       <c r="H12" s="6">
         <v>0</v>
@@ -2421,22 +2423,22 @@
         <v>28</v>
       </c>
       <c r="B13">
-        <v>-1.5707963267948899</v>
+        <v>3.1415926540000001</v>
       </c>
       <c r="C13" s="15">
-        <v>5.8922091373622498E-16</v>
-      </c>
-      <c r="D13">
-        <v>1.5707963267949001</v>
-      </c>
-      <c r="E13">
-        <v>3.14159265358979</v>
+        <v>1.570796327</v>
+      </c>
+      <c r="D13" s="15">
+        <v>-4.0899999999999998E-15</v>
+      </c>
+      <c r="E13" s="15">
+        <v>-1.570796327</v>
       </c>
       <c r="F13" s="6">
-        <v>0</v>
+        <v>-3.1415926540000001</v>
       </c>
       <c r="G13" s="6">
-        <v>0</v>
+        <v>1.570796327</v>
       </c>
       <c r="H13" s="6">
         <v>0</v>
@@ -2471,22 +2473,22 @@
         <v>53</v>
       </c>
       <c r="B14" s="6">
-        <v>0</v>
+        <v>1.570796327</v>
       </c>
       <c r="C14" s="6">
-        <v>0</v>
+        <v>3.1415926540000001</v>
       </c>
       <c r="D14" s="6">
-        <v>0</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0</v>
+        <v>-1.570796327</v>
+      </c>
+      <c r="E14" s="14">
+        <v>-1.8599999999999999E-16</v>
       </c>
       <c r="F14" s="6">
-        <v>0</v>
+        <v>1.570796327</v>
       </c>
       <c r="G14" s="6">
-        <v>0</v>
+        <v>3.1415926540000001</v>
       </c>
       <c r="H14" s="6">
         <v>0</v>
@@ -2496,23 +2498,23 @@
       <c r="A15" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="6">
-        <v>0</v>
+      <c r="B15" s="14">
+        <v>2.1499999999999999E-16</v>
       </c>
       <c r="C15" s="6">
-        <v>0</v>
+        <v>-1.570796327</v>
       </c>
       <c r="D15" s="6">
-        <v>0</v>
+        <v>3.1415926540000001</v>
       </c>
       <c r="E15" s="6">
-        <v>0</v>
-      </c>
-      <c r="F15" s="6">
-        <v>0</v>
+        <v>1.570796327</v>
+      </c>
+      <c r="F15" s="14">
+        <v>-2.9200000000000001E-15</v>
       </c>
       <c r="G15" s="6">
-        <v>0</v>
+        <v>-1.570796327</v>
       </c>
       <c r="H15" s="6">
         <v>0</v>

--- a/variables.xlsx
+++ b/variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Non-Hermitian Gauge Field\non-hermitian-gauge-field\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E5C180-E848-4C24-A7CD-8697A5F5C00E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF753A2-3C51-4F68-8792-28C05D9F7391}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="852" yWindow="-108" windowWidth="22296" windowHeight="13176" tabRatio="1000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1560,7 +1560,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1713,8 +1713,8 @@
         <v>16</v>
       </c>
       <c r="B14" s="18">
-        <f>500*10^-9</f>
-        <v>5.0000000000000008E-7</v>
+        <f>100*10^-9</f>
+        <v>1.0000000000000001E-7</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
@@ -1870,8 +1870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G15" sqref="B10:G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1913,23 +1913,23 @@
       <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B2">
-        <v>0.99115050000000005</v>
-      </c>
-      <c r="C2">
-        <v>0.98237931499999998</v>
-      </c>
-      <c r="D2">
-        <v>0.97368574900000004</v>
-      </c>
-      <c r="E2">
-        <v>0.96506911799999995</v>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0</v>
       </c>
       <c r="F2" s="6">
-        <v>0.95652873900000002</v>
+        <v>0</v>
       </c>
       <c r="G2" s="6">
-        <v>0.94806393799999999</v>
+        <v>0</v>
       </c>
       <c r="H2" s="6">
         <v>0</v>
@@ -1942,23 +1942,23 @@
       <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="15">
-        <v>0.90700000000000003</v>
-      </c>
-      <c r="D3">
-        <v>0.91494722900000003</v>
-      </c>
-      <c r="E3">
-        <v>0.92311634600000003</v>
+      <c r="B3" s="6">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
       </c>
       <c r="F3" s="6">
-        <v>0.93135840199999997</v>
+        <v>0</v>
       </c>
       <c r="G3" s="6">
-        <v>0.93967404700000001</v>
+        <v>0</v>
       </c>
       <c r="H3" s="6">
         <v>0</v>
@@ -2004,23 +2004,23 @@
       <c r="A4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B4">
-        <v>0.93135840199999997</v>
-      </c>
-      <c r="C4">
-        <v>0.97368574900000004</v>
-      </c>
-      <c r="D4">
-        <v>0.96506911799999995</v>
-      </c>
-      <c r="E4">
-        <v>0.95652873900000002</v>
+      <c r="B4" s="6">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
       </c>
       <c r="F4" s="6">
-        <v>0.94806393799999999</v>
+        <v>0</v>
       </c>
       <c r="G4" s="6">
-        <v>0.93967404700000001</v>
+        <v>0</v>
       </c>
       <c r="H4" s="6">
         <v>0</v>
@@ -2066,23 +2066,23 @@
       <c r="A5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B5">
-        <v>0.93967404700000001</v>
-      </c>
-      <c r="C5">
-        <v>0.898825231</v>
-      </c>
-      <c r="D5">
-        <v>0.90685040400000005</v>
-      </c>
-      <c r="E5" s="15">
-        <v>0.91500000000000004</v>
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
       </c>
       <c r="F5" s="6">
-        <v>0.92311634600000003</v>
+        <v>0</v>
       </c>
       <c r="G5" s="6">
-        <v>0.93135840199999997</v>
+        <v>0</v>
       </c>
       <c r="H5" s="6">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>53</v>
       </c>
       <c r="B6" s="6">
-        <v>0.87517331899999995</v>
+        <v>0</v>
       </c>
       <c r="C6" s="6">
-        <v>0.96506911799999995</v>
+        <v>0</v>
       </c>
       <c r="D6" s="6">
-        <v>0.95652873900000002</v>
+        <v>0</v>
       </c>
       <c r="E6" s="6">
-        <v>0.94806393799999999</v>
+        <v>0</v>
       </c>
       <c r="F6" s="6">
-        <v>0.93967404700000001</v>
+        <v>0</v>
       </c>
       <c r="G6" s="6">
-        <v>0.93135840199999997</v>
+        <v>0</v>
       </c>
       <c r="H6" s="6">
         <v>0</v>
@@ -2191,22 +2191,22 @@
         <v>54</v>
       </c>
       <c r="B7" s="6">
-        <v>0.88298731500000005</v>
+        <v>0</v>
       </c>
       <c r="C7" s="6">
-        <v>0.89087107799999998</v>
+        <v>0</v>
       </c>
       <c r="D7" s="6">
-        <v>0.898825231</v>
+        <v>0</v>
       </c>
       <c r="E7" s="6">
-        <v>0.90685040400000005</v>
+        <v>0</v>
       </c>
       <c r="F7" s="6">
-        <v>0.91494722900000003</v>
+        <v>0</v>
       </c>
       <c r="G7" s="6">
-        <v>0.92311634600000003</v>
+        <v>0</v>
       </c>
       <c r="H7" s="6">
         <v>0</v>
@@ -2269,23 +2269,23 @@
       <c r="A10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B10">
-        <v>1.570796327</v>
-      </c>
-      <c r="C10" s="15">
-        <v>3.1415926540000001</v>
-      </c>
-      <c r="D10" s="15">
-        <v>-1.570796327</v>
-      </c>
-      <c r="E10" s="15">
-        <v>-4.2100000000000002E-15</v>
+      <c r="B10" s="6">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
       </c>
       <c r="F10" s="6">
-        <v>1.570796327</v>
+        <v>0</v>
       </c>
       <c r="G10" s="6">
-        <v>3.1415926540000001</v>
+        <v>0</v>
       </c>
       <c r="H10" s="6">
         <v>0</v>
@@ -2322,23 +2322,23 @@
       <c r="A11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" s="15">
-        <v>-1.570796327</v>
-      </c>
-      <c r="D11" s="15">
-        <v>3.14</v>
-      </c>
-      <c r="E11">
-        <v>1.570796327</v>
-      </c>
-      <c r="F11" s="14">
-        <v>-4.7099999999999996E-15</v>
+      <c r="B11" s="6">
+        <v>0</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
       </c>
       <c r="G11" s="6">
-        <v>-1.570796327</v>
+        <v>0</v>
       </c>
       <c r="H11" s="6">
         <v>0</v>
@@ -2372,23 +2372,23 @@
       <c r="A12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B12">
-        <v>-1.570796327</v>
-      </c>
-      <c r="C12" s="15">
-        <v>-3.37E-16</v>
-      </c>
-      <c r="D12" s="15">
-        <v>1.570796327</v>
-      </c>
-      <c r="E12" s="15">
-        <v>3.14</v>
+      <c r="B12" s="6">
+        <v>0</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
       </c>
       <c r="F12" s="6">
-        <v>-1.570796327</v>
-      </c>
-      <c r="G12" s="14">
-        <v>-3.6899999999999996E-15</v>
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
       </c>
       <c r="H12" s="6">
         <v>0</v>
@@ -2422,23 +2422,23 @@
       <c r="A13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B13">
-        <v>3.1415926540000001</v>
-      </c>
-      <c r="C13" s="15">
-        <v>1.570796327</v>
-      </c>
-      <c r="D13" s="15">
-        <v>-4.0899999999999998E-15</v>
-      </c>
-      <c r="E13" s="15">
-        <v>-1.570796327</v>
+      <c r="B13" s="6">
+        <v>0</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
       </c>
       <c r="F13" s="6">
-        <v>-3.1415926540000001</v>
+        <v>0</v>
       </c>
       <c r="G13" s="6">
-        <v>1.570796327</v>
+        <v>0</v>
       </c>
       <c r="H13" s="6">
         <v>0</v>
@@ -2473,22 +2473,22 @@
         <v>53</v>
       </c>
       <c r="B14" s="6">
-        <v>1.570796327</v>
+        <v>0</v>
       </c>
       <c r="C14" s="6">
-        <v>3.1415926540000001</v>
+        <v>0</v>
       </c>
       <c r="D14" s="6">
-        <v>-1.570796327</v>
-      </c>
-      <c r="E14" s="14">
-        <v>-1.8599999999999999E-16</v>
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
       </c>
       <c r="F14" s="6">
-        <v>1.570796327</v>
+        <v>0</v>
       </c>
       <c r="G14" s="6">
-        <v>3.1415926540000001</v>
+        <v>0</v>
       </c>
       <c r="H14" s="6">
         <v>0</v>
@@ -2498,23 +2498,23 @@
       <c r="A15" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="14">
-        <v>2.1499999999999999E-16</v>
+      <c r="B15" s="6">
+        <v>0</v>
       </c>
       <c r="C15" s="6">
-        <v>-1.570796327</v>
+        <v>0</v>
       </c>
       <c r="D15" s="6">
-        <v>3.1415926540000001</v>
+        <v>0</v>
       </c>
       <c r="E15" s="6">
-        <v>1.570796327</v>
-      </c>
-      <c r="F15" s="14">
-        <v>-2.9200000000000001E-15</v>
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
       </c>
       <c r="G15" s="6">
-        <v>-1.570796327</v>
+        <v>0</v>
       </c>
       <c r="H15" s="6">
         <v>0</v>
